--- a/sample.xlsx
+++ b/sample.xlsx
@@ -18,14 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,6 +31,14 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age|年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name|名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,20 +456,20 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>313</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>121</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>12</v>
